--- a/design/Skill.xlsx
+++ b/design/Skill.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A841D0A5-3D73-4273-BC26-22D869CC7D29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA23519-83DC-40D1-8B59-34FBC9B05345}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
+    <sheet name="Buff" sheetId="3" r:id="rId2"/>
+    <sheet name="Passive" sheetId="7" r:id="rId3"/>
+    <sheet name="SkillProperty.Active" sheetId="2" r:id="rId4"/>
+    <sheet name="SkillProperty.Passive" sheetId="5" r:id="rId5"/>
+    <sheet name="SkillProperty.Buff" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,21 +30,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="52">
+  <si>
+    <t>*string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체공격스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체회복스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체공경스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체회복스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>($Skill)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
+    <t>LevelUpFee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Consume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비그룹1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectMine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -47,23 +232,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전체공격스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체회복스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scripts/Skill/Attack.lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scripts/Skill/Heal.lua</t>
+    <t>HPRecovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPRecovery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,59 +601,1999 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842F009F-133C-4BB3-A1B5-B7250D1CBAC3}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F04DA9-4C92-4B6C-8BC1-127CF9956EF3}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>60000</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>60000</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>60000</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>60000</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>60000</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>60000</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>60000</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>60000</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>60000</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>60000</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>60000</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>60000</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>60000</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>60000</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>60000</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>60000</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>60000</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>60000</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>60000</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>60000</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE27B49-996F-416A-8697-D74209F11A77}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5FBA98-B0DD-4B8F-84A1-C809835CE8C4}">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
         <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>-100</v>
       </c>
     </row>
   </sheetData>
@@ -488,4 +2601,1202 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093711A5-B2FB-4565-AF25-2890344523CF}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D451CA1-7798-4A62-B872-CF58DB430CFE}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/design/Skill.xlsx
+++ b/design/Skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA23519-83DC-40D1-8B59-34FBC9B05345}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0148504-6327-45EB-8445-D880F5216CB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="53">
   <si>
     <t>*string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +237,10 @@
   </si>
   <si>
     <t>MPRecovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scripts/Skill/Attack.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,15 +607,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842F009F-133C-4BB3-A1B5-B7250D1CBAC3}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -678,6 +682,9 @@
       </c>
       <c r="D4" t="s">
         <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1143,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE27B49-996F-416A-8697-D74209F11A77}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1154,7 +1161,7 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1164,11 +1171,8 @@
       <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1178,11 +1182,8 @@
       <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1192,11 +1193,8 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1207,7 +1205,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1218,7 +1216,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1229,7 +1227,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1240,7 +1238,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1251,7 +1249,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1262,7 +1260,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1273,7 +1271,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1284,7 +1282,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1295,7 +1293,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1306,7 +1304,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1317,7 +1315,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1328,7 +1326,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1427,7 +1425,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1576,10 +1574,10 @@
         <v>24</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1602,10 +1600,10 @@
         <v>24</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1628,10 +1626,10 @@
         <v>24</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1654,10 +1652,10 @@
         <v>24</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1680,10 +1678,10 @@
         <v>24</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1706,10 +1704,10 @@
         <v>24</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1732,10 +1730,10 @@
         <v>24</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1758,10 +1756,10 @@
         <v>24</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1784,10 +1782,10 @@
         <v>24</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1810,10 +1808,10 @@
         <v>24</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1836,10 +1834,10 @@
         <v>24</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1862,10 +1860,10 @@
         <v>24</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1888,10 +1886,10 @@
         <v>24</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1914,10 +1912,10 @@
         <v>24</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1940,10 +1938,10 @@
         <v>24</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1966,10 +1964,10 @@
         <v>24</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1992,10 +1990,10 @@
         <v>24</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2018,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K21">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2044,10 +2042,10 @@
         <v>24</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K22">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2070,10 +2068,10 @@
         <v>25</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K23">
-        <v>100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -2096,10 +2094,10 @@
         <v>25</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K24">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2122,10 +2120,10 @@
         <v>25</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K25">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2148,10 +2146,10 @@
         <v>25</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K26">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2174,10 +2172,10 @@
         <v>25</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K27">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2200,10 +2198,10 @@
         <v>25</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K28">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2226,10 +2224,10 @@
         <v>25</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K29">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2252,10 +2250,10 @@
         <v>25</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K30">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2278,10 +2276,10 @@
         <v>25</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K31">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2304,10 +2302,10 @@
         <v>25</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K32">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2330,10 +2328,10 @@
         <v>25</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K33">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -2356,10 +2354,10 @@
         <v>25</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K34">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2382,10 +2380,10 @@
         <v>25</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K35">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2408,10 +2406,10 @@
         <v>25</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K36">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2434,10 +2432,10 @@
         <v>25</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K37">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2460,10 +2458,10 @@
         <v>25</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K38">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2486,10 +2484,10 @@
         <v>25</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K39">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2512,10 +2510,10 @@
         <v>25</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K40">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2538,10 +2536,10 @@
         <v>25</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K41">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2564,10 +2562,10 @@
         <v>25</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K42">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2590,10 +2588,10 @@
         <v>25</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K43">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3207,7 +3205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D451CA1-7798-4A62-B872-CF58DB430CFE}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:L3"/>
     </sheetView>
   </sheetViews>

--- a/design/Skill.xlsx
+++ b/design/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\Visual Studio\osd\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0148504-6327-45EB-8445-D880F5216CB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D573943C-0B23-408C-9756-47F9C55A2B28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06217CED-4DF5-4D94-BA86-0432B863CDFE}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="54">
   <si>
     <t>*string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t>scripts/Skill/Attack.lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scripts/Skill/Buff.lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,7 +612,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -714,6 +718,9 @@
       <c r="D6" t="s">
         <v>37</v>
       </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -741,7 +748,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1153,7 +1160,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
